--- a/model/Auswertung/Fließtext/Ergebnis_GPT/results.xlsx
+++ b/model/Auswertung/Fließtext/Ergebnis_GPT/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="B2" t="n">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="C2" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1918</v>
+        <v>0.1922</v>
       </c>
       <c r="F2" t="n">
         <v>216</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3496</v>
+        <v>3478</v>
       </c>
       <c r="B3" t="n">
-        <v>1809</v>
+        <v>1792</v>
       </c>
       <c r="C3" t="n">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4828</v>
+        <v>0.485</v>
       </c>
       <c r="F3" t="n">
         <v>590</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B4" t="n">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.429</v>
+        <v>0.4344</v>
       </c>
       <c r="F4" t="n">
         <v>184</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3065</v>
+        <v>3055</v>
       </c>
       <c r="B5" t="n">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="C5" t="n">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5984</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>436</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="n">
-        <v>1232</v>
+        <v>1212</v>
       </c>
       <c r="C6" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1832</v>
+        <v>0.1842</v>
       </c>
       <c r="F6" t="n">
         <v>198</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="C7" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3235</v>
+        <v>0.3252</v>
       </c>
       <c r="F7" t="n">
         <v>268</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2754</v>
+        <v>2735</v>
       </c>
       <c r="B8" t="n">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="C8" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3322</v>
+        <v>0.3298</v>
       </c>
       <c r="F8" t="n">
         <v>463</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2111</v>
+        <v>2098</v>
       </c>
       <c r="B9" t="n">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="C9" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2487</v>
+        <v>0.2483</v>
       </c>
       <c r="F9" t="n">
         <v>330</v>
